--- a/data/trans_orig/P05A01-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P05A01-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>361594</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>332581</v>
+        <v>335093</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>385381</v>
+        <v>386317</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5210201711326415</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4792147069250752</v>
+        <v>0.4828338913137314</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5552947403458474</v>
+        <v>0.5566434181454935</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>323</v>
@@ -765,19 +765,19 @@
         <v>323610</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>296789</v>
+        <v>296322</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>347110</v>
+        <v>348025</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4701231445906549</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4311592097146404</v>
+        <v>0.4304808423675148</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5042625346983066</v>
+        <v>0.5055922190074498</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>677</v>
@@ -786,19 +786,19 @@
         <v>685204</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>645345</v>
+        <v>647512</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>720806</v>
+        <v>723767</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.495675875410884</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4668416600422754</v>
+        <v>0.4684096241995909</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5214302715704934</v>
+        <v>0.5235719567229434</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>282812</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>258530</v>
+        <v>257756</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>309240</v>
+        <v>308404</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4075031626987051</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.372514826732166</v>
+        <v>0.3714001250358215</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.445583739732717</v>
+        <v>0.4443779938880292</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>305</v>
@@ -836,19 +836,19 @@
         <v>298477</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>275696</v>
+        <v>273786</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>323527</v>
+        <v>322499</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4336120786812676</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4005162954216477</v>
+        <v>0.3977419546648176</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4700028123914243</v>
+        <v>0.4685097046419885</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>584</v>
@@ -857,19 +857,19 @@
         <v>581289</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>547143</v>
+        <v>544597</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>619584</v>
+        <v>618831</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4205041596644259</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3958026240728723</v>
+        <v>0.3939611943650181</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4482062991567388</v>
+        <v>0.4476614785423971</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>49606</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>38613</v>
+        <v>38649</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>64366</v>
+        <v>63850</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07147666616865336</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05563684939219282</v>
+        <v>0.05568867302777274</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09274455281002096</v>
+        <v>0.09200140327311525</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>68</v>
@@ -907,19 +907,19 @@
         <v>66264</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>52229</v>
+        <v>52892</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>83084</v>
+        <v>82672</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09626477672807761</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07587523751380046</v>
+        <v>0.07683870129326834</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1207004559315633</v>
+        <v>0.1201012376796161</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>118</v>
@@ -928,19 +928,19 @@
         <v>115870</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>98788</v>
+        <v>96253</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>137670</v>
+        <v>135887</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.08381996492468999</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07146339355027086</v>
+        <v>0.06962902041396125</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.09959058112090745</v>
+        <v>0.09830064600268362</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>523530</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>490270</v>
+        <v>492657</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>554821</v>
+        <v>554240</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5448147454073835</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5102028068410408</v>
+        <v>0.5126866563816055</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5773785064140478</v>
+        <v>0.5767736766583783</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>473</v>
@@ -1053,19 +1053,19 @@
         <v>505810</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>478618</v>
+        <v>475326</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>536582</v>
+        <v>537835</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5223194349373649</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.49423920396183</v>
+        <v>0.4908398437455341</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5540949968639508</v>
+        <v>0.5553887525691507</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>951</v>
@@ -1074,19 +1074,19 @@
         <v>1029340</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>984569</v>
+        <v>986044</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1075383</v>
+        <v>1074076</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.533523593055318</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5103180227172114</v>
+        <v>0.5110822811035314</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5573883872641126</v>
+        <v>0.5567106197642555</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>350742</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>320564</v>
+        <v>322887</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>383393</v>
+        <v>384361</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3650017031736177</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3335965542916178</v>
+        <v>0.3360145976827482</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3989799704607523</v>
+        <v>0.3999875685551019</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>316</v>
@@ -1124,19 +1124,19 @@
         <v>337509</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>309108</v>
+        <v>305434</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>367110</v>
+        <v>371057</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3485252457197073</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3191970813841768</v>
+        <v>0.3154028643802904</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.379091731237747</v>
+        <v>0.3831675972889516</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>652</v>
@@ -1145,19 +1145,19 @@
         <v>688251</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>648326</v>
+        <v>646334</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>731419</v>
+        <v>730908</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3567316154332251</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3360377957726235</v>
+        <v>0.3350052780404199</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3791061631288198</v>
+        <v>0.3788415306628181</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>86660</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>68859</v>
+        <v>70675</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>107510</v>
+        <v>106549</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09018355141899875</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07165834635471777</v>
+        <v>0.07354844845300812</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1118813587202192</v>
+        <v>0.1108805906405929</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>119</v>
@@ -1195,19 +1195,19 @@
         <v>125073</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>104579</v>
+        <v>104311</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>147142</v>
+        <v>146411</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1291553193429279</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1079922971807687</v>
+        <v>0.1077157394876153</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.151944737507837</v>
+        <v>0.1511894794978796</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>200</v>
@@ -1216,19 +1216,19 @@
         <v>211733</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>183804</v>
+        <v>184208</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>242765</v>
+        <v>238978</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1097447915114569</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09526833700424064</v>
+        <v>0.09547812380616784</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1258289874077174</v>
+        <v>0.123866049201145</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>353040</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>325127</v>
+        <v>325097</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>380585</v>
+        <v>378961</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5203167486857193</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.479178536882488</v>
+        <v>0.4791349091770077</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5609136185833205</v>
+        <v>0.5585199379690856</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>393</v>
@@ -1341,19 +1341,19 @@
         <v>385012</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>358989</v>
+        <v>358239</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>408216</v>
+        <v>408603</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5653622742952833</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5271485401268287</v>
+        <v>0.5260473557327773</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5994351893868738</v>
+        <v>0.6000040466543741</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>728</v>
@@ -1362,19 +1362,19 @@
         <v>738052</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>704738</v>
+        <v>701621</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>776493</v>
+        <v>778582</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5428807979277586</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5183765914168015</v>
+        <v>0.5160834245080692</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5711568820812106</v>
+        <v>0.5726928750684563</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>243330</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>216906</v>
+        <v>217212</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>271735</v>
+        <v>269418</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3586241491997588</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.319680886902953</v>
+        <v>0.3201310771373261</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4004879748876518</v>
+        <v>0.3970734770554346</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>223</v>
@@ -1412,19 +1412,19 @@
         <v>220064</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>198229</v>
+        <v>197714</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>243609</v>
+        <v>246633</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3231485667632069</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2910851911810816</v>
+        <v>0.2903288535370119</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3577216254013762</v>
+        <v>0.3621630699526651</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>458</v>
@@ -1433,19 +1433,19 @@
         <v>463394</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>428954</v>
+        <v>428454</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>497859</v>
+        <v>500252</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3408538428673042</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3155210984201035</v>
+        <v>0.3151531391885993</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3662046879266497</v>
+        <v>0.3679650615382041</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>82140</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>64535</v>
+        <v>63981</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>101852</v>
+        <v>101931</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1210591021145219</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0951131790478873</v>
+        <v>0.09429601128891518</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1501118628729999</v>
+        <v>0.1502275866060915</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>77</v>
@@ -1483,19 +1483,19 @@
         <v>75924</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>61031</v>
+        <v>61399</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>94081</v>
+        <v>94704</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1114891589415098</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08961997271861148</v>
+        <v>0.09015959688997585</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1381513249513645</v>
+        <v>0.1390654183472436</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>148</v>
@@ -1504,19 +1504,19 @@
         <v>158064</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>134351</v>
+        <v>133836</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>181528</v>
+        <v>181171</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1162653592049372</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0988234173100935</v>
+        <v>0.09844414331052752</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1335243445006209</v>
+        <v>0.1332620800608676</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>493131</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>464951</v>
+        <v>463640</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>525704</v>
+        <v>525727</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.52383966927754</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4939047158904501</v>
+        <v>0.4925121978877183</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5584407127845212</v>
+        <v>0.5584652925277027</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>462</v>
@@ -1629,19 +1629,19 @@
         <v>483247</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>449821</v>
+        <v>450882</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>515686</v>
+        <v>516926</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4657248895450009</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4335110782963706</v>
+        <v>0.4345330142706507</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4969876489594136</v>
+        <v>0.4981822474038162</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>981</v>
@@ -1650,19 +1650,19 @@
         <v>976378</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>931635</v>
+        <v>933655</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1019555</v>
+        <v>1019259</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4933691141107164</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4707603576943745</v>
+        <v>0.4717807363804217</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5151868884511598</v>
+        <v>0.5150369101108984</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>339591</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>311748</v>
+        <v>310334</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>367221</v>
+        <v>366686</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3607384213735342</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.331161154963715</v>
+        <v>0.329659235173583</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3900883321383906</v>
+        <v>0.3895206893633614</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>352</v>
@@ -1700,19 +1700,19 @@
         <v>365716</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>330643</v>
+        <v>333004</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>394527</v>
+        <v>398246</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3524554772994926</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3186536813140393</v>
+        <v>0.320929198748347</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3802216377944898</v>
+        <v>0.3838054626940894</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>713</v>
@@ -1721,19 +1721,19 @@
         <v>705307</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>661662</v>
+        <v>666109</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>743385</v>
+        <v>746320</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3563955346670311</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3343415356293954</v>
+        <v>0.336588420144811</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3756365084458173</v>
+        <v>0.3771193800089287</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>108656</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>89636</v>
+        <v>89797</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>128703</v>
+        <v>129587</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1154219093489258</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09521816627605971</v>
+        <v>0.09538861062813644</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1367171709335587</v>
+        <v>0.1376571863848066</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>182</v>
@@ -1771,19 +1771,19 @@
         <v>188660</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>165528</v>
+        <v>165111</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>216984</v>
+        <v>217559</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1818196331555065</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1595262553165676</v>
+        <v>0.159124141962858</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2091163913230039</v>
+        <v>0.2096700215604332</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>295</v>
@@ -1792,19 +1792,19 @@
         <v>297316</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>268695</v>
+        <v>266356</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>333379</v>
+        <v>328040</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1502353512222525</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1357730214914385</v>
+        <v>0.1345911974232943</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1684579791672435</v>
+        <v>0.165760519163304</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>1731295</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1674682</v>
+        <v>1670771</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1787761</v>
+        <v>1788479</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5286669484853916</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5113797147236695</v>
+        <v>0.5101854471927798</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5459093104764847</v>
+        <v>0.5461285717405494</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1651</v>
@@ -1917,19 +1917,19 @@
         <v>1697680</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1638267</v>
+        <v>1641902</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1756870</v>
+        <v>1759055</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5029612582841534</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4853593426061268</v>
+        <v>0.4864363435942575</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5204972410450127</v>
+        <v>0.5211445974771479</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3337</v>
@@ -1938,19 +1938,19 @@
         <v>3428975</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3348751</v>
+        <v>3348925</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>3512741</v>
+        <v>3514371</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5156197933673428</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5035564592537412</v>
+        <v>0.5035826410248269</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5282158639285703</v>
+        <v>0.5284609353530121</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>1216475</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1161800</v>
+        <v>1161958</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1273938</v>
+        <v>1278146</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.371461866574323</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3547663527405983</v>
+        <v>0.3548147175984916</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3890088784584967</v>
+        <v>0.3902938038530459</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1196</v>
@@ -1988,19 +1988,19 @@
         <v>1221767</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1166360</v>
+        <v>1163433</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1276382</v>
+        <v>1278604</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3619656029574606</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3455503227028148</v>
+        <v>0.3446832255319862</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3781458032884249</v>
+        <v>0.3788043208674035</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>2407</v>
@@ -2009,19 +2009,19 @@
         <v>2438242</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2359170</v>
+        <v>2358123</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>2518304</v>
+        <v>2517305</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3666419522486956</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3547518038407569</v>
+        <v>0.3545942328431977</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3786808785342629</v>
+        <v>0.3785306697036677</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>327061</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>292184</v>
+        <v>294184</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>362931</v>
+        <v>365760</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09987118494028532</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08922108976338219</v>
+        <v>0.0898317452653298</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1108242922296056</v>
+        <v>0.1116882689373163</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>446</v>
@@ -2059,19 +2059,19 @@
         <v>455922</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>417652</v>
+        <v>417272</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>495313</v>
+        <v>496814</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1350731387583861</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1237351025064145</v>
+        <v>0.1236225275794557</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1467432686778963</v>
+        <v>0.1471879779361312</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>761</v>
@@ -2080,19 +2080,19 @@
         <v>782983</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>727906</v>
+        <v>728397</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>831600</v>
+        <v>836033</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1177382543839616</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1094562329402586</v>
+        <v>0.1095300648116011</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1250488899648396</v>
+        <v>0.1257155172976328</v>
       </c>
     </row>
     <row r="23">
@@ -2424,19 +2424,19 @@
         <v>543510</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>520358</v>
+        <v>519285</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>564735</v>
+        <v>564314</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7751150621731682</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7420970058817784</v>
+        <v>0.7405665972608031</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8053844917729337</v>
+        <v>0.8047846956660311</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>507</v>
@@ -2445,19 +2445,19 @@
         <v>540037</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>515911</v>
+        <v>514082</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>560813</v>
+        <v>562150</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7766621727849844</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7419647336001739</v>
+        <v>0.7393338569586934</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8065410342514282</v>
+        <v>0.8084645493000983</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1026</v>
@@ -2466,19 +2466,19 @@
         <v>1083547</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1052178</v>
+        <v>1053925</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1112318</v>
+        <v>1115202</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7758853670619301</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7534234302923949</v>
+        <v>0.7546741583597083</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7964867830092226</v>
+        <v>0.7985522845463326</v>
       </c>
     </row>
     <row r="5">
@@ -2495,19 +2495,19 @@
         <v>139789</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>117908</v>
+        <v>119086</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>162343</v>
+        <v>162305</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1993575033548779</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1681512866617455</v>
+        <v>0.1698326331325034</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2315218006751304</v>
+        <v>0.2314679933689074</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>121</v>
@@ -2516,19 +2516,19 @@
         <v>132589</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>112923</v>
+        <v>111872</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>154313</v>
+        <v>155549</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1906853296589829</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1624021913797528</v>
+        <v>0.160890855398944</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2219278039475036</v>
+        <v>0.2237056446776482</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>256</v>
@@ -2537,19 +2537,19 @@
         <v>272379</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>244480</v>
+        <v>244565</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>302619</v>
+        <v>302079</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1950396363949334</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1750625053777853</v>
+        <v>0.1751236826637585</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2166931796077224</v>
+        <v>0.216307109344458</v>
       </c>
     </row>
     <row r="6">
@@ -2566,19 +2566,19 @@
         <v>17900</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11066</v>
+        <v>11260</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>27009</v>
+        <v>28689</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02552743447195389</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01578120840728317</v>
+        <v>0.01605876500808999</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03851879945792695</v>
+        <v>0.04091486493654684</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>21</v>
@@ -2587,19 +2587,19 @@
         <v>22704</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>13898</v>
+        <v>14700</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>35975</v>
+        <v>34139</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0326524975560327</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01998823595640123</v>
+        <v>0.02114068009622631</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05173808752189843</v>
+        <v>0.04909790984574888</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>39</v>
@@ -2608,19 +2608,19 @@
         <v>40604</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>27970</v>
+        <v>29453</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>55395</v>
+        <v>55091</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02907499654313644</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02002821717090587</v>
+        <v>0.02109011352290939</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03966619169361534</v>
+        <v>0.03944850205563539</v>
       </c>
     </row>
     <row r="7">
@@ -2712,19 +2712,19 @@
         <v>742187</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>711563</v>
+        <v>711733</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>770643</v>
+        <v>768788</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7313605801965478</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7011830409716414</v>
+        <v>0.7013511958128186</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7594019803112051</v>
+        <v>0.7575734694206239</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>676</v>
@@ -2733,19 +2733,19 @@
         <v>742502</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>709102</v>
+        <v>710230</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>771594</v>
+        <v>769145</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7208278336230214</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6884028304295219</v>
+        <v>0.6894971219052515</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7490699762783785</v>
+        <v>0.7466928184650126</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1359</v>
@@ -2754,19 +2754,19 @@
         <v>1484689</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1443464</v>
+        <v>1441802</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1524921</v>
+        <v>1525459</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7260548915664408</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.705894312716377</v>
+        <v>0.7050817261584533</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7457291280053676</v>
+        <v>0.7459922622194073</v>
       </c>
     </row>
     <row r="9">
@@ -2783,19 +2783,19 @@
         <v>232196</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>204993</v>
+        <v>207698</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>262210</v>
+        <v>262097</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2288089820157582</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2020026401645035</v>
+        <v>0.2046681075964596</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2583854268880943</v>
+        <v>0.2582739440438908</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>218</v>
@@ -2804,19 +2804,19 @@
         <v>237602</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>211548</v>
+        <v>210554</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>268461</v>
+        <v>266255</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2306663747309035</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2053722279472376</v>
+        <v>0.2044077625461981</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2606238950438434</v>
+        <v>0.2584830178710745</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>431</v>
@@ -2825,19 +2825,19 @@
         <v>469798</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>429428</v>
+        <v>431523</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>506029</v>
+        <v>512222</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2297446114208328</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2100025959003092</v>
+        <v>0.2110268425709957</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2474625192668275</v>
+        <v>0.2504911528433487</v>
       </c>
     </row>
     <row r="10">
@@ -2854,19 +2854,19 @@
         <v>40420</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>28903</v>
+        <v>29553</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>55411</v>
+        <v>56441</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03983043778769392</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02848136710897241</v>
+        <v>0.02912221709567542</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05460243480474507</v>
+        <v>0.0556177807888542</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>44</v>
@@ -2875,19 +2875,19 @@
         <v>49964</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>37600</v>
+        <v>36725</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>65400</v>
+        <v>65942</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04850579164607512</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03650244114141644</v>
+        <v>0.0356530986840965</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06349133452374575</v>
+        <v>0.06401671254065255</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>81</v>
@@ -2896,19 +2896,19 @@
         <v>90384</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>71371</v>
+        <v>72064</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>112368</v>
+        <v>112028</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04420049701272642</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03490234109970978</v>
+        <v>0.03524111810345736</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05495123966592596</v>
+        <v>0.05478497559166876</v>
       </c>
     </row>
     <row r="11">
@@ -3000,19 +3000,19 @@
         <v>511701</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>485151</v>
+        <v>485962</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>536708</v>
+        <v>539970</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6762014744623025</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6411160322440288</v>
+        <v>0.6421872714854867</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7092478389880529</v>
+        <v>0.7135579104553904</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>482</v>
@@ -3021,19 +3021,19 @@
         <v>536859</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>511436</v>
+        <v>510355</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>566315</v>
+        <v>563130</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6917277484957213</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6589716630582316</v>
+        <v>0.6575778423421168</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.729680855950827</v>
+        <v>0.7255774209701423</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>945</v>
@@ -3042,19 +3042,19 @@
         <v>1048560</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1009247</v>
+        <v>1009759</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1080146</v>
+        <v>1085660</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6840627855042085</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6584157155459043</v>
+        <v>0.6587493617981143</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7046690679576764</v>
+        <v>0.7082658652608621</v>
       </c>
     </row>
     <row r="13">
@@ -3071,19 +3071,19 @@
         <v>190877</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>167713</v>
+        <v>166815</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>217468</v>
+        <v>217002</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2522394288998012</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2216290585457343</v>
+        <v>0.2204424196738971</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2873791854198199</v>
+        <v>0.2867632883867253</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>166</v>
@@ -3092,19 +3092,19 @@
         <v>178472</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>156606</v>
+        <v>155672</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>202642</v>
+        <v>204194</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2299564772567236</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2017828514115608</v>
+        <v>0.2005794889166281</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2610987440825654</v>
+        <v>0.2630982755411915</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>344</v>
@@ -3113,19 +3113,19 @@
         <v>369349</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>339922</v>
+        <v>335607</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>406631</v>
+        <v>401986</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2409570559736928</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2217593888108676</v>
+        <v>0.2189442172390603</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2652789961156933</v>
+        <v>0.2622491356752449</v>
       </c>
     </row>
     <row r="14">
@@ -3142,19 +3142,19 @@
         <v>54151</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>41184</v>
+        <v>39962</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>70987</v>
+        <v>70374</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.07155909663789631</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05442357851317439</v>
+        <v>0.05280834408597665</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09380788770830911</v>
+        <v>0.0929971193819403</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>56</v>
@@ -3163,19 +3163,19 @@
         <v>60782</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>46496</v>
+        <v>46851</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>77792</v>
+        <v>78285</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.07831577424755513</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05990896502931076</v>
+        <v>0.06036643738858857</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1002325242977251</v>
+        <v>0.100867786244075</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>103</v>
@@ -3184,19 +3184,19 @@
         <v>114933</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>95921</v>
+        <v>94266</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>140672</v>
+        <v>140148</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07498015852209869</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06257700175971767</v>
+        <v>0.06149753745343548</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.09177206527745849</v>
+        <v>0.09143027277500354</v>
       </c>
     </row>
     <row r="15">
@@ -3288,19 +3288,19 @@
         <v>542413</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>511189</v>
+        <v>508746</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>573707</v>
+        <v>573734</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5723235991784011</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5393775768356642</v>
+        <v>0.5367998002033372</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6053425997718049</v>
+        <v>0.6053716446790794</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>648</v>
@@ -3309,19 +3309,19 @@
         <v>677307</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>644410</v>
+        <v>645923</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>706774</v>
+        <v>706734</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6444744131613713</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6131723378327668</v>
+        <v>0.6146117444145269</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6725126749508819</v>
+        <v>0.6724747952535749</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1170</v>
@@ -3330,19 +3330,19 @@
         <v>1219721</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1178677</v>
+        <v>1174126</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1265342</v>
+        <v>1259287</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6102618226197125</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5897264021513695</v>
+        <v>0.5874493464699361</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6330875486213915</v>
+        <v>0.6300581415952842</v>
       </c>
     </row>
     <row r="17">
@@ -3359,19 +3359,19 @@
         <v>301163</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>272478</v>
+        <v>273542</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>330322</v>
+        <v>335046</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3177700492429059</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2875033093397603</v>
+        <v>0.2886261995071935</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3485370505139919</v>
+        <v>0.3535211671000731</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>257</v>
@@ -3380,19 +3380,19 @@
         <v>271244</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>244173</v>
+        <v>242824</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>299422</v>
+        <v>299178</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2580948598047893</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2323366994757617</v>
+        <v>0.2310525754166186</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2849073390844691</v>
+        <v>0.284675618900287</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>546</v>
@@ -3401,19 +3401,19 @@
         <v>572407</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>530212</v>
+        <v>534727</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>610201</v>
+        <v>616025</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.286391738371178</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2652804172206932</v>
+        <v>0.2675395295813734</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3053015775688134</v>
+        <v>0.3082153387685508</v>
       </c>
     </row>
     <row r="18">
@@ -3430,19 +3430,19 @@
         <v>104163</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>86081</v>
+        <v>86783</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>124663</v>
+        <v>127288</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1099063515786929</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09082805117118437</v>
+        <v>0.09156798217476594</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1315368461640033</v>
+        <v>0.1343069294104705</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>97</v>
@@ -3451,19 +3451,19 @@
         <v>102394</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>84312</v>
+        <v>85442</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>125087</v>
+        <v>123069</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.09743072703383934</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08022476255316893</v>
+        <v>0.08129975173123113</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1190231907176301</v>
+        <v>0.1171034504672664</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>196</v>
@@ -3472,19 +3472,19 @@
         <v>206557</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>179356</v>
+        <v>179933</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>236891</v>
+        <v>234650</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1033464390091095</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.08973697056166199</v>
+        <v>0.09002556613738534</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1185236558653033</v>
+        <v>0.1174025004155453</v>
       </c>
     </row>
     <row r="19">
@@ -3576,19 +3576,19 @@
         <v>2339811</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2275935</v>
+        <v>2285918</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2392852</v>
+        <v>2393965</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6840613871729462</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6653867671479304</v>
+        <v>0.6683053103765265</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6995681259181289</v>
+        <v>0.6998936981696514</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2313</v>
@@ -3597,19 +3597,19 @@
         <v>2496706</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2441009</v>
+        <v>2439272</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2554526</v>
+        <v>2558360</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7028107711545849</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6871325358411846</v>
+        <v>0.6866435607020658</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7190869817894331</v>
+        <v>0.7201662203391844</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4500</v>
@@ -3618,19 +3618,19 @@
         <v>4836518</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4760571</v>
+        <v>4754588</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>4912336</v>
+        <v>4913998</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6936135288956127</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6827219028010336</v>
+        <v>0.6818637675717064</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7044867053476092</v>
+        <v>0.7047251000046233</v>
       </c>
     </row>
     <row r="21">
@@ -3647,19 +3647,19 @@
         <v>864025</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>815775</v>
+        <v>819900</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>924834</v>
+        <v>919791</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2526042618159133</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2384977992671036</v>
+        <v>0.239703961844654</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2703820645700256</v>
+        <v>0.2689078958193361</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>762</v>
@@ -3668,19 +3668,19 @@
         <v>819907</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>769510</v>
+        <v>766988</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>871725</v>
+        <v>874809</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2308000308042912</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2166134373920722</v>
+        <v>0.2159034787741739</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2453864850560735</v>
+        <v>0.2462545471025665</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1577</v>
@@ -3689,19 +3689,19 @@
         <v>1683933</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1606318</v>
+        <v>1611330</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1754481</v>
+        <v>1757665</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2414957845997691</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2303649432920149</v>
+        <v>0.231083706730832</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2516131754539149</v>
+        <v>0.252069799642036</v>
       </c>
     </row>
     <row r="22">
@@ -3718,19 +3718,19 @@
         <v>216633</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>188523</v>
+        <v>188875</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>251405</v>
+        <v>245601</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06333435101114042</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05511610075682793</v>
+        <v>0.05521893269722042</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07350005441267404</v>
+        <v>0.0718033001726948</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>218</v>
@@ -3739,19 +3739,19 @@
         <v>235845</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>208350</v>
+        <v>206109</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>267304</v>
+        <v>270074</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06638919804112389</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05864960495867836</v>
+        <v>0.05801858399059068</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0752449226420982</v>
+        <v>0.07602466698118791</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>419</v>
@@ -3760,19 +3760,19 @@
         <v>452478</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>409519</v>
+        <v>409265</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>494829</v>
+        <v>494446</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06489068650461824</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05872978126867841</v>
+        <v>0.05869341003529872</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0709642478182481</v>
+        <v>0.07090943782630828</v>
       </c>
     </row>
     <row r="23">
@@ -4104,19 +4104,19 @@
         <v>564068</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>542462</v>
+        <v>543892</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>581916</v>
+        <v>582098</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8359040757836116</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.803885561475168</v>
+        <v>0.8060044150608259</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8623527480277267</v>
+        <v>0.8626229614603028</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>555</v>
@@ -4125,19 +4125,19 @@
         <v>561152</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>541319</v>
+        <v>540723</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>577635</v>
+        <v>578874</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8353417852778101</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8058188131997495</v>
+        <v>0.8049313283594448</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8598789361689283</v>
+        <v>0.8617234024720236</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1101</v>
@@ -4146,19 +4146,19 @@
         <v>1125220</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1092413</v>
+        <v>1096966</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1148636</v>
+        <v>1151115</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8356235645416429</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8112604006575309</v>
+        <v>0.8146411327066401</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8530130478666715</v>
+        <v>0.8548544232351777</v>
       </c>
     </row>
     <row r="5">
@@ -4175,19 +4175,19 @@
         <v>90721</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>74801</v>
+        <v>74398</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>111384</v>
+        <v>109991</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1344415092689934</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1108494938043212</v>
+        <v>0.1102518575858886</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1650628012649384</v>
+        <v>0.1629983833657164</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>83</v>
@@ -4196,19 +4196,19 @@
         <v>84009</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>68838</v>
+        <v>69389</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>102732</v>
+        <v>103370</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1250570027374925</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1024735353810405</v>
+        <v>0.1032945764491853</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1529287196429199</v>
+        <v>0.1538794069380295</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>172</v>
@@ -4217,19 +4217,19 @@
         <v>174730</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>154209</v>
+        <v>152049</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>203054</v>
+        <v>201035</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1297598375081256</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1145202598954125</v>
+        <v>0.1129163327247554</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1507939973755439</v>
+        <v>0.1492948242673313</v>
       </c>
     </row>
     <row r="6">
@@ -4246,19 +4246,19 @@
         <v>20011</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11532</v>
+        <v>12028</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>32885</v>
+        <v>32625</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02965441494739497</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01708999226546344</v>
+        <v>0.01782421621916452</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04873268781505763</v>
+        <v>0.04834798060688759</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>27</v>
@@ -4267,19 +4267,19 @@
         <v>26603</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>17424</v>
+        <v>17891</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>37967</v>
+        <v>39092</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0396012119846973</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02593777070939889</v>
+        <v>0.0266333242133778</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05651813337951105</v>
+        <v>0.05819302904130105</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>44</v>
@@ -4288,19 +4288,19 @@
         <v>46613</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>33351</v>
+        <v>33489</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>60948</v>
+        <v>60188</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03461659795023147</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02476736844358802</v>
+        <v>0.02487020702614329</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04526173190504219</v>
+        <v>0.04469775956326106</v>
       </c>
     </row>
     <row r="7">
@@ -4392,19 +4392,19 @@
         <v>764591</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>735824</v>
+        <v>735788</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>793096</v>
+        <v>794121</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7478167403869805</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.719680774310273</v>
+        <v>0.7196460820362531</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7756967850964952</v>
+        <v>0.7766989888223397</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>752</v>
@@ -4413,19 +4413,19 @@
         <v>800752</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>771722</v>
+        <v>771685</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>826205</v>
+        <v>828699</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7698525857359352</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7419430601402198</v>
+        <v>0.7419069837741987</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7943228070167921</v>
+        <v>0.7967206954246657</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1464</v>
@@ -4434,19 +4434,19 @@
         <v>1565343</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1524583</v>
+        <v>1528120</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1604169</v>
+        <v>1607181</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7589292446181489</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7391674819177304</v>
+        <v>0.7408823428717435</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7777530440851015</v>
+        <v>0.7792134027537201</v>
       </c>
     </row>
     <row r="9">
@@ -4463,19 +4463,19 @@
         <v>213138</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>187248</v>
+        <v>187332</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>239829</v>
+        <v>239710</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2084620564597728</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1831400613851865</v>
+        <v>0.183222127605939</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2345669418631368</v>
+        <v>0.2344515171787576</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>168</v>
@@ -4484,19 +4484,19 @@
         <v>179700</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>156649</v>
+        <v>155369</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>205759</v>
+        <v>206524</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1727652338722933</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.150604425084703</v>
+        <v>0.1493731826854281</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1978193138708171</v>
+        <v>0.1985549062949318</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>366</v>
@@ -4505,19 +4505,19 @@
         <v>392838</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>359436</v>
+        <v>351766</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>431469</v>
+        <v>427308</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.190460428396003</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1742660714936734</v>
+        <v>0.1705475841295903</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2091900269908711</v>
+        <v>0.2071727729990069</v>
       </c>
     </row>
     <row r="10">
@@ -4534,19 +4534,19 @@
         <v>44702</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>31070</v>
+        <v>32691</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>61099</v>
+        <v>61612</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04372120315324669</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03038877976108375</v>
+        <v>0.03197369637799253</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05975879315047332</v>
+        <v>0.0602598267931715</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>55</v>
@@ -4555,19 +4555,19 @@
         <v>59685</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>45348</v>
+        <v>47041</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>77197</v>
+        <v>75893</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05738218039177154</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04359784345316191</v>
+        <v>0.04522614388350361</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07421858048050244</v>
+        <v>0.07296469382801316</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>96</v>
@@ -4576,19 +4576,19 @@
         <v>104387</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>83745</v>
+        <v>85411</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>124803</v>
+        <v>127603</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05061032698584809</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04060236741625874</v>
+        <v>0.0414098254020324</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0605087401356206</v>
+        <v>0.06186603453920656</v>
       </c>
     </row>
     <row r="11">
@@ -4680,19 +4680,19 @@
         <v>483450</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>452626</v>
+        <v>455446</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>509518</v>
+        <v>510144</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6374069898976904</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5967667713955028</v>
+        <v>0.6004851954588656</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6717768008900863</v>
+        <v>0.6726021498060013</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>443</v>
@@ -4701,19 +4701,19 @@
         <v>471881</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>440426</v>
+        <v>442299</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>497950</v>
+        <v>499044</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6020884030351488</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5619541179508525</v>
+        <v>0.5643434393827494</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6353511214264466</v>
+        <v>0.6367466294181123</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>886</v>
@@ -4722,19 +4722,19 @@
         <v>955330</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>917246</v>
+        <v>916263</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>993820</v>
+        <v>991984</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6194582614057293</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5947635927011792</v>
+        <v>0.5941261484810478</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6444156791954926</v>
+        <v>0.6432254344193541</v>
       </c>
     </row>
     <row r="13">
@@ -4751,19 +4751,19 @@
         <v>230674</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>205401</v>
+        <v>206284</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>258696</v>
+        <v>257733</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3041336768378621</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2708117830396309</v>
+        <v>0.2719767405556449</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3410797655748712</v>
+        <v>0.3398093788069392</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>240</v>
@@ -4772,19 +4772,19 @@
         <v>254991</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>229735</v>
+        <v>231280</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>283582</v>
+        <v>286843</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3253508920514724</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2931267447186887</v>
+        <v>0.2950976582595642</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3618312445683742</v>
+        <v>0.3659920718592179</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>451</v>
@@ -4793,19 +4793,19 @@
         <v>485665</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>449897</v>
+        <v>451976</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>520335</v>
+        <v>526147</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.314916159067594</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2917233285653736</v>
+        <v>0.2930717826935882</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3373971214822485</v>
+        <v>0.341165920649262</v>
       </c>
     </row>
     <row r="14">
@@ -4822,19 +4822,19 @@
         <v>44339</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>31893</v>
+        <v>32694</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>59600</v>
+        <v>61222</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05845933326444747</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04204908803491183</v>
+        <v>0.04310620515027916</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07858019701913969</v>
+        <v>0.08071801756964717</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>52</v>
@@ -4843,19 +4843,19 @@
         <v>56869</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>43212</v>
+        <v>43687</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>73136</v>
+        <v>75053</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.07256070491337881</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05513523207832512</v>
+        <v>0.05574109163477754</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09331698349952341</v>
+        <v>0.09576320093562397</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>93</v>
@@ -4864,19 +4864,19 @@
         <v>101208</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>82928</v>
+        <v>83807</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>122948</v>
+        <v>121773</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.06562557952667665</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05377232358154408</v>
+        <v>0.05434207590942699</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07972218077295289</v>
+        <v>0.07896057740773099</v>
       </c>
     </row>
     <row r="15">
@@ -4968,19 +4968,19 @@
         <v>597056</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>566794</v>
+        <v>567165</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>624425</v>
+        <v>626795</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6376757151358705</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6053555390781097</v>
+        <v>0.6057513559018459</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6669068619705327</v>
+        <v>0.6694384541258248</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>638</v>
@@ -4989,19 +4989,19 @@
         <v>692203</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>658923</v>
+        <v>658978</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>722904</v>
+        <v>724001</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.663827970314155</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6319129168503548</v>
+        <v>0.6319651022834984</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6932705276222464</v>
+        <v>0.6943230261248442</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1234</v>
@@ -5010,19 +5010,19 @@
         <v>1289258</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1243958</v>
+        <v>1244001</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1330608</v>
+        <v>1330334</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6514551519296418</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.628565136759639</v>
+        <v>0.6285870694119222</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6723488155437912</v>
+        <v>0.6722103205674793</v>
       </c>
     </row>
     <row r="17">
@@ -5039,19 +5039,19 @@
         <v>275304</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>249754</v>
+        <v>247629</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>303694</v>
+        <v>303877</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2940344629773748</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2667453406744691</v>
+        <v>0.264475854900778</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3243556291058212</v>
+        <v>0.3245506541698909</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>241</v>
@@ -5060,19 +5060,19 @@
         <v>262376</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>235657</v>
+        <v>233798</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>294242</v>
+        <v>294178</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2516208523347269</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.225996883884794</v>
+        <v>0.2242143300342197</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2821805272551247</v>
+        <v>0.282119368914099</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>514</v>
@@ -5081,19 +5081,19 @@
         <v>537681</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>498702</v>
+        <v>499959</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>578441</v>
+        <v>579642</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2716870339292184</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2519913139169507</v>
+        <v>0.252626715383186</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2922827917792905</v>
+        <v>0.2928900045332054</v>
       </c>
     </row>
     <row r="18">
@@ -5110,19 +5110,19 @@
         <v>63940</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>48903</v>
+        <v>50456</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>81375</v>
+        <v>81790</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.06828982188675461</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.05223025468109604</v>
+        <v>0.05388882582865651</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.08691090598574513</v>
+        <v>0.08735446517806343</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>79</v>
@@ -5131,19 +5131,19 @@
         <v>88165</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>71861</v>
+        <v>70026</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>110730</v>
+        <v>108645</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.08455117735111814</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06891552616487202</v>
+        <v>0.06715570483625717</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1061911279886535</v>
+        <v>0.1041913949657549</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>141</v>
@@ -5152,19 +5152,19 @@
         <v>152105</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>129153</v>
+        <v>129112</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>178521</v>
+        <v>178038</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.07685781414113975</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.06526037169976311</v>
+        <v>0.06523952498269671</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.09020562721302383</v>
+        <v>0.08996183803817247</v>
       </c>
     </row>
     <row r="19">
@@ -5256,19 +5256,19 @@
         <v>2409164</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2356377</v>
+        <v>2356742</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2462761</v>
+        <v>2467323</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.710250217728163</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6946879582236927</v>
+        <v>0.6947954079180215</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7260510883269016</v>
+        <v>0.7273958936773651</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2388</v>
@@ -5277,19 +5277,19 @@
         <v>2525987</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2472644</v>
+        <v>2470519</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2583969</v>
+        <v>2578143</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7138816185250244</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6988060561408815</v>
+        <v>0.6982055345746824</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7302681033020064</v>
+        <v>0.7286216348444946</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4685</v>
@@ -5298,19 +5298,19 @@
         <v>4935152</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4863172</v>
+        <v>4859190</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5012009</v>
+        <v>5012181</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.712104271098479</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7017181842376631</v>
+        <v>0.7011435943709908</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7231941549597718</v>
+        <v>0.723218963792957</v>
       </c>
     </row>
     <row r="21">
@@ -5327,19 +5327,19 @@
         <v>809838</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>760570</v>
+        <v>758099</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>859514</v>
+        <v>858489</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2387497771014773</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2242249935979514</v>
+        <v>0.2234966582697186</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.253394968387504</v>
+        <v>0.2530928248518554</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>732</v>
@@ -5348,19 +5348,19 @@
         <v>781075</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>729933</v>
+        <v>732672</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>832603</v>
+        <v>830587</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2207433654473319</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2062899709826564</v>
+        <v>0.2070639499622801</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2353059155859841</v>
+        <v>0.2347362467368522</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1503</v>
@@ -5369,19 +5369,19 @@
         <v>1590913</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1518844</v>
+        <v>1524675</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1660344</v>
+        <v>1662246</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2295563968930686</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2191574197644514</v>
+        <v>0.2199987880192888</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2395747868533952</v>
+        <v>0.2398492588895772</v>
       </c>
     </row>
     <row r="22">
@@ -5398,19 +5398,19 @@
         <v>172992</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>145694</v>
+        <v>149473</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>199292</v>
+        <v>201848</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05100000517035975</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04295227452599566</v>
+        <v>0.04406650512972873</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05875355069825579</v>
+        <v>0.05950716761566602</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>213</v>
@@ -5419,19 +5419,19 @@
         <v>231322</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>204859</v>
+        <v>202446</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>264868</v>
+        <v>261608</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06537501602764363</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0578960704324548</v>
+        <v>0.05721426625339759</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07485557504711333</v>
+        <v>0.07393435638296039</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>374</v>
@@ -5440,19 +5440,19 @@
         <v>404314</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>364873</v>
+        <v>367417</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>445246</v>
+        <v>446917</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05833933200845242</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05264836077122791</v>
+        <v>0.05301539589289988</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06424551450012167</v>
+        <v>0.06448665776186099</v>
       </c>
     </row>
     <row r="23">
@@ -5784,19 +5784,19 @@
         <v>623399</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>601617</v>
+        <v>603859</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>637915</v>
+        <v>638752</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9039694475827502</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8723838101660661</v>
+        <v>0.8756349749838844</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9250191808583969</v>
+        <v>0.9262319661847476</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1150</v>
@@ -5805,19 +5805,19 @@
         <v>671577</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>656141</v>
+        <v>654814</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>685008</v>
+        <v>684625</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9147301321107498</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8937054715664086</v>
+        <v>0.8918979442771098</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9330252669681067</v>
+        <v>0.9325029086972819</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1813</v>
@@ -5826,19 +5826,19 @@
         <v>1294976</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1269574</v>
+        <v>1271408</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1316241</v>
+        <v>1316356</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9095181604499722</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8916777857393657</v>
+        <v>0.8929655610903185</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9244534496459001</v>
+        <v>0.9245348486409342</v>
       </c>
     </row>
     <row r="5">
@@ -5855,19 +5855,19 @@
         <v>54226</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>40278</v>
+        <v>41654</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>73748</v>
+        <v>74261</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07863132505919754</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0584057208538651</v>
+        <v>0.06040044257019852</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1069400806993216</v>
+        <v>0.1076827243149598</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>69</v>
@@ -5876,19 +5876,19 @@
         <v>46206</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>35409</v>
+        <v>35207</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>60199</v>
+        <v>60655</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06293564073266478</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04822911325275858</v>
+        <v>0.04795445255937662</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08199535597042586</v>
+        <v>0.082616302353321</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>122</v>
@@ -5897,19 +5897,19 @@
         <v>100432</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>82960</v>
+        <v>81740</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>123994</v>
+        <v>121256</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07053789518901846</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05826673565019254</v>
+        <v>0.05740936755130067</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08708665274977832</v>
+        <v>0.08516358241598321</v>
       </c>
     </row>
     <row r="6">
@@ -5926,19 +5926,19 @@
         <v>11999</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6406</v>
+        <v>6181</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>22059</v>
+        <v>23047</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01739922735805231</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.009289787307684861</v>
+        <v>0.008962835523764603</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03198741396527223</v>
+        <v>0.03341926601258209</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>22</v>
@@ -5947,19 +5947,19 @@
         <v>16397</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10034</v>
+        <v>9944</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>27091</v>
+        <v>27076</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0223342271565852</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01366648523164086</v>
+        <v>0.0135442680792251</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03689978347599532</v>
+        <v>0.03687982523210076</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>35</v>
@@ -5968,19 +5968,19 @@
         <v>28396</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>19805</v>
+        <v>19093</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>41780</v>
+        <v>41390</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.01994394436100933</v>
+        <v>0.01994394436100934</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01390963341974507</v>
+        <v>0.01340981673159794</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0293437684411835</v>
+        <v>0.02906971321586087</v>
       </c>
     </row>
     <row r="7">
@@ -6072,19 +6072,19 @@
         <v>879632</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>852430</v>
+        <v>848989</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>905278</v>
+        <v>907616</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8386097520866501</v>
+        <v>0.83860975208665</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8126762173517879</v>
+        <v>0.8093959776046983</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8630600087564613</v>
+        <v>0.8652884736298526</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1265</v>
@@ -6093,19 +6093,19 @@
         <v>881310</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>855930</v>
+        <v>858415</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>901450</v>
+        <v>903466</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8237559315778079</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8000334596139875</v>
+        <v>0.802356188360094</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8425808605271001</v>
+        <v>0.8444650835346317</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2082</v>
@@ -6114,19 +6114,19 @@
         <v>1760942</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1725038</v>
+        <v>1725635</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1796885</v>
+        <v>1796977</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8311094034998675</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8141637633290527</v>
+        <v>0.8144457007269353</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8480735040152414</v>
+        <v>0.8481165336064266</v>
       </c>
     </row>
     <row r="9">
@@ -6143,19 +6143,19 @@
         <v>119776</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>97576</v>
+        <v>97978</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>145014</v>
+        <v>147511</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1141902525077586</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.09302556380566641</v>
+        <v>0.09340861540962771</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.138251354663407</v>
+        <v>0.1406321693672611</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>189</v>
@@ -6164,19 +6164,19 @@
         <v>141147</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>123749</v>
+        <v>122672</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>165920</v>
+        <v>163184</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1319291987156057</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1156678055967507</v>
+        <v>0.114660812801474</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1550846061329642</v>
+        <v>0.1525270832149151</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>290</v>
@@ -6185,19 +6185,19 @@
         <v>260923</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>230521</v>
+        <v>231020</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>293855</v>
+        <v>295098</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1231474282082349</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1087988371047915</v>
+        <v>0.1090340390987435</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1386903207566618</v>
+        <v>0.1392769749881793</v>
       </c>
     </row>
     <row r="10">
@@ -6214,19 +6214,19 @@
         <v>49509</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>36679</v>
+        <v>35866</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>67593</v>
+        <v>67221</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0471999954055913</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03496800075573156</v>
+        <v>0.03419349409441463</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06444065587133307</v>
+        <v>0.06408637777758458</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>61</v>
@@ -6235,19 +6235,19 @@
         <v>47411</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>37128</v>
+        <v>36957</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>61950</v>
+        <v>60226</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.04431486970658634</v>
+        <v>0.04431486970658636</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0347031102959778</v>
+        <v>0.03454339919459084</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05790412659396093</v>
+        <v>0.05629285446835133</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>107</v>
@@ -6256,19 +6256,19 @@
         <v>96920</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>78670</v>
+        <v>78559</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>117111</v>
+        <v>118952</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04574316829189753</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03712967913403063</v>
+        <v>0.03707746918193204</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0552729407947555</v>
+        <v>0.05614182209823528</v>
       </c>
     </row>
     <row r="11">
@@ -6360,19 +6360,19 @@
         <v>594921</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>566041</v>
+        <v>565420</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>622509</v>
+        <v>624076</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.7418944820835522</v>
+        <v>0.7418944820835521</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7058797461069588</v>
+        <v>0.7051049382270185</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7762975252985878</v>
+        <v>0.7782512689478785</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>814</v>
@@ -6381,19 +6381,19 @@
         <v>626939</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>604127</v>
+        <v>600576</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>648539</v>
+        <v>648181</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.7718464170946054</v>
+        <v>0.7718464170946052</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7437619028440754</v>
+        <v>0.7393898348267629</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.798438734269973</v>
+        <v>0.7979974918402071</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1305</v>
@@ -6402,19 +6402,19 @@
         <v>1221861</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1184938</v>
+        <v>1186694</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1254811</v>
+        <v>1257435</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.7569666021374245</v>
+        <v>0.7569666021374246</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7340925596875526</v>
+        <v>0.7351800306486898</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7773799960881691</v>
+        <v>0.7790058889763741</v>
       </c>
     </row>
     <row r="13">
@@ -6431,19 +6431,19 @@
         <v>180729</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>154046</v>
+        <v>154730</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>208585</v>
+        <v>207654</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2253771799587448</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1921023011540547</v>
+        <v>0.1929552832607433</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2601154989769685</v>
+        <v>0.2589536720929498</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>187</v>
@@ -6452,19 +6452,19 @@
         <v>148153</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>128918</v>
+        <v>129404</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>171139</v>
+        <v>174144</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.1823957670253485</v>
+        <v>0.1823957670253484</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1587149132963154</v>
+        <v>0.1593139868648479</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2106953735495663</v>
+        <v>0.2143940568665799</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>347</v>
@@ -6473,19 +6473,19 @@
         <v>328881</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>298197</v>
+        <v>295978</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>363886</v>
+        <v>364252</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2037484933454041</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1847388615223916</v>
+        <v>0.1833641950922467</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.225434769387105</v>
+        <v>0.2256610017961729</v>
       </c>
     </row>
     <row r="14">
@@ -6502,19 +6502,19 @@
         <v>26245</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>17679</v>
+        <v>17055</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>39404</v>
+        <v>37342</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03272833795770309</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0220471362576849</v>
+        <v>0.02126865847869592</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04913903095666503</v>
+        <v>0.04656697558132096</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>46</v>
@@ -6523,19 +6523,19 @@
         <v>37167</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>27002</v>
+        <v>27012</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>49715</v>
+        <v>48618</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.04575781588004613</v>
+        <v>0.04575781588004614</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03324358411863763</v>
+        <v>0.03325482584278135</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06120580633309242</v>
+        <v>0.05985511756335668</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>70</v>
@@ -6544,19 +6544,19 @@
         <v>63412</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>49721</v>
+        <v>49066</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>81653</v>
+        <v>80179</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.03928490451717124</v>
+        <v>0.03928490451717125</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03080300140025338</v>
+        <v>0.03039734507466284</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05058570408329032</v>
+        <v>0.04967230913112611</v>
       </c>
     </row>
     <row r="15">
@@ -6648,19 +6648,19 @@
         <v>613866</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>581711</v>
+        <v>582073</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>648710</v>
+        <v>644031</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6212597545800987</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5887175785210368</v>
+        <v>0.5890834507090302</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6565230311088152</v>
+        <v>0.6517874772030979</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>980</v>
@@ -6669,19 +6669,19 @@
         <v>680059</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>647030</v>
+        <v>645768</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>708520</v>
+        <v>709130</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.6084882690572162</v>
+        <v>0.6084882690572161</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5789358713866205</v>
+        <v>0.577806621351884</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6339541031223745</v>
+        <v>0.6345000919907645</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1612</v>
@@ -6690,19 +6690,19 @@
         <v>1293925</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1246100</v>
+        <v>1246660</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1336893</v>
+        <v>1337273</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6144812307932206</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5917693302357648</v>
+        <v>0.5920351637314326</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6348869246543902</v>
+        <v>0.6350671919458455</v>
       </c>
     </row>
     <row r="17">
@@ -6719,19 +6719,19 @@
         <v>279838</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>248501</v>
+        <v>250768</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>312420</v>
+        <v>310899</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2832083092353638</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2514936128388635</v>
+        <v>0.2537885345855274</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3161829013117365</v>
+        <v>0.3146438671506199</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>411</v>
@@ -6740,19 +6740,19 @@
         <v>307175</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>279510</v>
+        <v>280605</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>334356</v>
+        <v>335547</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.274847638547463</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2500936009383708</v>
+        <v>0.2510734141901277</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.299168034405794</v>
+        <v>0.3002330914089886</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>688</v>
@@ -6761,19 +6761,19 @@
         <v>587013</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>545180</v>
+        <v>546447</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>629005</v>
+        <v>631847</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2787708453999588</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2589042246341204</v>
+        <v>0.2595061382736412</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2987126156739257</v>
+        <v>0.3000623471281039</v>
       </c>
     </row>
     <row r="18">
@@ -6790,19 +6790,19 @@
         <v>94395</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>76957</v>
+        <v>77709</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>116864</v>
+        <v>116005</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.09553193618453733</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.07788439184003723</v>
+        <v>0.07864463353106398</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1182711500670045</v>
+        <v>0.1174024801854039</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>169</v>
@@ -6811,19 +6811,19 @@
         <v>130386</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>110965</v>
+        <v>111417</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>152306</v>
+        <v>152263</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1166640923953209</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.09928666040416659</v>
+        <v>0.09969157797751806</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1362768351163542</v>
+        <v>0.1362382724887962</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>264</v>
@@ -6832,19 +6832,19 @@
         <v>224781</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>198269</v>
+        <v>197966</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>254333</v>
+        <v>251372</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1067479238068206</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.09415715548039473</v>
+        <v>0.09401334006047742</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.120782121510498</v>
+        <v>0.1193758661189464</v>
       </c>
     </row>
     <row r="19">
@@ -6936,19 +6936,19 @@
         <v>2711819</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2661681</v>
+        <v>2654512</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2768572</v>
+        <v>2764044</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.768539528062582</v>
+        <v>0.7685395280625819</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7543303562590954</v>
+        <v>0.7522986844475997</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7846236725159554</v>
+        <v>0.7833404674529957</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4209</v>
@@ -6957,19 +6957,19 @@
         <v>2859885</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2810486</v>
+        <v>2808438</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2908916</v>
+        <v>2906747</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7659186992367177</v>
+        <v>0.7659186992367175</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7526890068140163</v>
+        <v>0.7521406313240447</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7790499378803494</v>
+        <v>0.7784692265150182</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6812</v>
@@ -6978,19 +6978,19 @@
         <v>5571703</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5503357</v>
+        <v>5499030</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5645466</v>
+        <v>5639913</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7671920535306501</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7577811621116693</v>
+        <v>0.7571853776818116</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7773487265080976</v>
+        <v>0.7765841415681936</v>
       </c>
     </row>
     <row r="21">
@@ -7007,19 +7007,19 @@
         <v>634569</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>588793</v>
+        <v>587698</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>686489</v>
+        <v>683238</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1798391852841759</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1668661232566142</v>
+        <v>0.1665557981519931</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1945534926208138</v>
+        <v>0.1936322350563163</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>856</v>
@@ -7028,19 +7028,19 @@
         <v>642681</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>599349</v>
+        <v>602761</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>687128</v>
+        <v>688031</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1721192601354948</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1605143565699108</v>
+        <v>0.1614281615566505</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1840228441024492</v>
+        <v>0.1842648303895316</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1447</v>
@@ -7049,19 +7049,19 @@
         <v>1277250</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1214421</v>
+        <v>1215042</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1344834</v>
+        <v>1347008</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1758700582570275</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1672189042947323</v>
+        <v>0.1673044379737071</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1851759877354869</v>
+        <v>0.1854754578051708</v>
       </c>
     </row>
     <row r="22">
@@ -7078,19 +7078,19 @@
         <v>182148</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>154654</v>
+        <v>156194</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>210703</v>
+        <v>211850</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05162128665324221</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04382942922199191</v>
+        <v>0.04426607623951378</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05971400620695004</v>
+        <v>0.0600391948173559</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>298</v>
@@ -7099,19 +7099,19 @@
         <v>231362</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>203611</v>
+        <v>204501</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>258046</v>
+        <v>263635</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.06196204062778751</v>
+        <v>0.0619620406277875</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05453008765867154</v>
+        <v>0.05476845027064057</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06910848398137699</v>
+        <v>0.07060536247463609</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>476</v>
@@ -7120,19 +7120,19 @@
         <v>413509</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>378064</v>
+        <v>373555</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>453841</v>
+        <v>455533</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05693788821232239</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05205723100998064</v>
+        <v>0.05143639017773666</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06249135071828087</v>
+        <v>0.06272431309901207</v>
       </c>
     </row>
     <row r="23">
